--- a/analysis/hyperparameters_comparison.xlsx
+++ b/analysis/hyperparameters_comparison.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandraastakhova/Projects/Python/Quick Draw/quick-draw-image-recognition/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE5191-27C1-3948-B16E-73FA05C88569}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F68D837-367C-5D40-9DD5-E26C6933AE25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
+    <workbookView xWindow="2320" yWindow="1600" windowWidth="28240" windowHeight="17560" activeTab="2" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Original dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Expanded dataset" sheetId="2" r:id="rId2"/>
+    <sheet name="Adam optimizer" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="hyperparameter_comparison" localSheetId="0">Parameters!$B$4:$K$14</definedName>
+    <definedName name="comparison_1557179772.093524" localSheetId="2">'Adam optimizer'!$B$4:$I$14</definedName>
+    <definedName name="hyperparameter_comparison" localSheetId="0">'Original dataset'!$B$4:$K$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,20 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{58768D16-446B-2C43-AEFF-3CEAED3B1F3B}" name="hyperparameter_comparison" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{12D849D9-0D93-2042-82CE-AA97A3155C30}" name="comparison_1557179772.093524" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/comparison_1557179772.093524.csv" thousands=" " comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{58768D16-446B-2C43-AEFF-3CEAED3B1F3B}" name="hyperparameter_comparison" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/hyperparameter_comparison.csv" thousands=" " tab="0" comma="1">
       <textFields count="9">
         <textField/>
@@ -54,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>test weight_decay: 0.0, dropout: 0.0</t>
   </si>
@@ -80,13 +96,19 @@
     <t>train weight_decay: 0.1, dropout: 0.0</t>
   </si>
   <si>
-    <t>Comparison of hyperparameters for the feed-forward neural network</t>
-  </si>
-  <si>
     <t>epochs</t>
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03)</t>
+  </si>
+  <si>
+    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03, expanded dataset with rotated and flipped images)</t>
+  </si>
+  <si>
+    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03, expanded dataset with rotated and flipped images) with Adam optimizer and number of minibatches == 1000</t>
   </si>
 </sst>
 </file>
@@ -152,7 +174,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="hyperparameter_comparison" connectionId="1" xr16:uid="{BA1644FB-2D55-3E41-9BFC-E3B5AE7525F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="hyperparameter_comparison" connectionId="2" xr16:uid="{BA1644FB-2D55-3E41-9BFC-E3B5AE7525F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="comparison_1557179772.093524" connectionId="1" xr16:uid="{3BE52358-A770-7945-B8C3-771A99E8AA11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EEA5C6-2C24-CC4D-93E9-0641633C0B89}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,15 +501,15 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -828,6 +854,640 @@
       </c>
       <c r="K14">
         <v>0.10142857142857099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8339C909-F14C-2C4C-BA89-011C8338A229}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.81144444444444397</v>
+      </c>
+      <c r="G5">
+        <v>0.83311111111111102</v>
+      </c>
+      <c r="H5">
+        <v>0.80144444444444396</v>
+      </c>
+      <c r="I5">
+        <v>0.81565079365079296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.84733333333333305</v>
+      </c>
+      <c r="E6">
+        <v>0.93088888888888799</v>
+      </c>
+      <c r="F6">
+        <v>0.84422222222222199</v>
+      </c>
+      <c r="G6">
+        <v>0.898126984126984</v>
+      </c>
+      <c r="H6">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.87431746031746005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.84355555555555495</v>
+      </c>
+      <c r="E7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.83622222222222198</v>
+      </c>
+      <c r="G7">
+        <v>0.92280952380952297</v>
+      </c>
+      <c r="H7">
+        <v>0.83077777777777695</v>
+      </c>
+      <c r="I7">
+        <v>0.91007936507936504</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0.84211111111111103</v>
+      </c>
+      <c r="E8">
+        <v>0.97466666666666602</v>
+      </c>
+      <c r="F8">
+        <v>0.83855555555555505</v>
+      </c>
+      <c r="G8">
+        <v>0.94658730158730098</v>
+      </c>
+      <c r="H8">
+        <v>0.82811111111111102</v>
+      </c>
+      <c r="I8">
+        <v>0.92312698412698402</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0.82511111111111102</v>
+      </c>
+      <c r="E9">
+        <v>0.98295238095238002</v>
+      </c>
+      <c r="F9">
+        <v>0.83288888888888801</v>
+      </c>
+      <c r="G9">
+        <v>0.95223809523809499</v>
+      </c>
+      <c r="H9">
+        <v>0.83</v>
+      </c>
+      <c r="I9">
+        <v>0.94266666666666599</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>0.82822222222222197</v>
+      </c>
+      <c r="E10">
+        <v>0.98668253968253905</v>
+      </c>
+      <c r="F10">
+        <v>0.82955555555555505</v>
+      </c>
+      <c r="G10">
+        <v>0.96342857142857097</v>
+      </c>
+      <c r="H10">
+        <v>0.83155555555555505</v>
+      </c>
+      <c r="I10">
+        <v>0.95079365079364997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>0.82877777777777695</v>
+      </c>
+      <c r="E11">
+        <v>0.99574603174603105</v>
+      </c>
+      <c r="F11">
+        <v>0.83</v>
+      </c>
+      <c r="G11">
+        <v>0.97231746031746003</v>
+      </c>
+      <c r="H11">
+        <v>0.82211111111111101</v>
+      </c>
+      <c r="I11">
+        <v>0.949031746031746</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>0.822888888888888</v>
+      </c>
+      <c r="E12">
+        <v>0.96053968253968203</v>
+      </c>
+      <c r="F12">
+        <v>0.83088888888888801</v>
+      </c>
+      <c r="G12">
+        <v>0.97649206349206297</v>
+      </c>
+      <c r="H12">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.96077777777777695</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0.83277777777777695</v>
+      </c>
+      <c r="E13">
+        <v>0.99995238095238004</v>
+      </c>
+      <c r="F13">
+        <v>0.82177777777777705</v>
+      </c>
+      <c r="G13">
+        <v>0.97319047619047605</v>
+      </c>
+      <c r="H13">
+        <v>0.82877777777777695</v>
+      </c>
+      <c r="I13">
+        <v>0.96706349206349196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>0.832666666666666</v>
+      </c>
+      <c r="E14">
+        <v>0.99996825396825395</v>
+      </c>
+      <c r="F14">
+        <v>0.82488888888888801</v>
+      </c>
+      <c r="G14">
+        <v>0.98312698412698396</v>
+      </c>
+      <c r="H14">
+        <v>0.82877777777777695</v>
+      </c>
+      <c r="I14">
+        <v>0.96949206349206296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81FE0B0-99D3-464F-8FF5-7416433A4FBB}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.83588888888888802</v>
+      </c>
+      <c r="E5">
+        <v>0.94531746031746</v>
+      </c>
+      <c r="F5">
+        <v>0.83155555555555505</v>
+      </c>
+      <c r="G5">
+        <v>0.91253968253968198</v>
+      </c>
+      <c r="H5">
+        <v>0.82655555555555504</v>
+      </c>
+      <c r="I5">
+        <v>0.89107936507936503</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.83411111111111103</v>
+      </c>
+      <c r="E6">
+        <v>0.96041269841269805</v>
+      </c>
+      <c r="F6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.93546031746031699</v>
+      </c>
+      <c r="H6">
+        <v>0.82444444444444398</v>
+      </c>
+      <c r="I6">
+        <v>0.91857142857142804</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.83277777777777695</v>
+      </c>
+      <c r="E7">
+        <v>0.97846031746031703</v>
+      </c>
+      <c r="F7">
+        <v>0.82811111111111102</v>
+      </c>
+      <c r="G7">
+        <v>0.94363492063492005</v>
+      </c>
+      <c r="H7">
+        <v>0.82477777777777705</v>
+      </c>
+      <c r="I7">
+        <v>0.93326984126984103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0.83244444444444399</v>
+      </c>
+      <c r="E8">
+        <v>0.97396825396825304</v>
+      </c>
+      <c r="F8">
+        <v>0.83144444444444399</v>
+      </c>
+      <c r="G8">
+        <v>0.95376190476190403</v>
+      </c>
+      <c r="H8">
+        <v>0.82133333333333303</v>
+      </c>
+      <c r="I8">
+        <v>0.94420634920634905</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0.83188888888888801</v>
+      </c>
+      <c r="E9">
+        <v>0.98161904761904695</v>
+      </c>
+      <c r="F9">
+        <v>0.82322222222222197</v>
+      </c>
+      <c r="G9">
+        <v>0.95171428571428496</v>
+      </c>
+      <c r="H9">
+        <v>0.82277777777777705</v>
+      </c>
+      <c r="I9">
+        <v>0.94993650793650797</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>0.82977777777777695</v>
+      </c>
+      <c r="E10">
+        <v>0.97912698412698396</v>
+      </c>
+      <c r="F10">
+        <v>0.823888888888888</v>
+      </c>
+      <c r="G10">
+        <v>0.95931746031746001</v>
+      </c>
+      <c r="H10">
+        <v>0.82155555555555504</v>
+      </c>
+      <c r="I10">
+        <v>0.95242857142857096</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>0.82933333333333303</v>
+      </c>
+      <c r="E11">
+        <v>0.98411111111111105</v>
+      </c>
+      <c r="F11">
+        <v>0.82555555555555504</v>
+      </c>
+      <c r="G11">
+        <v>0.96560317460317402</v>
+      </c>
+      <c r="H11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.95587301587301499</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>0.82411111111111102</v>
+      </c>
+      <c r="E12">
+        <v>0.98577777777777698</v>
+      </c>
+      <c r="F12">
+        <v>0.82566666666666599</v>
+      </c>
+      <c r="G12">
+        <v>0.96820634920634896</v>
+      </c>
+      <c r="H12">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="I12">
+        <v>0.95630158730158699</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.98561904761904695</v>
+      </c>
+      <c r="F13">
+        <v>0.82322222222222197</v>
+      </c>
+      <c r="G13">
+        <v>0.96276190476190404</v>
+      </c>
+      <c r="H13">
+        <v>0.81722222222222196</v>
+      </c>
+      <c r="I13">
+        <v>0.95950793650793598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>0.83322222222222198</v>
+      </c>
+      <c r="E14">
+        <v>0.99012698412698397</v>
+      </c>
+      <c r="F14">
+        <v>0.81655555555555503</v>
+      </c>
+      <c r="G14">
+        <v>0.96915873015873</v>
+      </c>
+      <c r="H14">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I14">
+        <v>0.96379365079364998</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/hyperparameters_comparison.xlsx
+++ b/analysis/hyperparameters_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandraastakhova/Projects/Python/Quick Draw/quick-draw-image-recognition/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F68D837-367C-5D40-9DD5-E26C6933AE25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2B8DFB-B214-AE46-B5CD-60E446049B0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="1600" windowWidth="28240" windowHeight="17560" activeTab="2" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
   </bookViews>
@@ -20,6 +20,8 @@
   <definedNames>
     <definedName name="comparison_1557179772.093524" localSheetId="2">'Adam optimizer'!$B$4:$I$14</definedName>
     <definedName name="hyperparameter_comparison" localSheetId="0">'Original dataset'!$B$4:$K$14</definedName>
+    <definedName name="learning_curve_adam_batch_norm" localSheetId="2">'Adam optimizer'!$J$4:$K$14</definedName>
+    <definedName name="learning_curve_adam_batch_norm_7000" localSheetId="2">'Adam optimizer'!$L$4:$M$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -66,11 +68,29 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{271E221C-F4AB-E244-B1AF-B9CEDBEFB65D}" name="learning_curve_adam_batch_norm" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/learning_curve_adam_batch_norm.csv" thousands=" " tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{AD48D861-32E6-F54D-AEB1-B3E184D14A53}" name="learning_curve_adam_batch_norm_7000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/learning_curve_adam_batch_norm_7000.csv" thousands=" " tab="0" comma="1">
+      <textFields count="3">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>test weight_decay: 0.0, dropout: 0.0</t>
   </si>
@@ -105,10 +125,22 @@
     <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03)</t>
   </si>
   <si>
-    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03, expanded dataset with rotated and flipped images)</t>
+    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03, expanded dataset with rotated and flipped images) with Adam optimizer and number of minibatches == 1000</t>
   </si>
   <si>
-    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03, expanded dataset with rotated and flipped images) with Adam optimizer and number of minibatches == 1000</t>
+    <t>train batch norm weight_decay: 0.0, dropout: 0.0</t>
+  </si>
+  <si>
+    <t>test batch norm weight_decay: 0.0, dropout: 0.0</t>
+  </si>
+  <si>
+    <t>Comparison of hyperparameters for the feed-forward neural network (lr = 0.03, expanded dataset with rotated and flipped images, minibatches = 7000)</t>
+  </si>
+  <si>
+    <t>train batch norm weight_decay: 0.0, dropout: 0.0 mini batches = 7000</t>
+  </si>
+  <si>
+    <t>test batch norm weight_decay: 0.0, dropout: 0.0, mini batches = 7000</t>
   </si>
 </sst>
 </file>
@@ -178,7 +210,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_adam_batch_norm_7000" connectionId="4" xr16:uid="{17E34221-FBAE-184A-930B-412F0C2EF5F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="comparison_1557179772.093524" connectionId="1" xr16:uid="{3BE52358-A770-7945-B8C3-771A99E8AA11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_adam_batch_norm" connectionId="3" xr16:uid="{B3314429-B1B6-BE45-AB91-D2B05C6A27EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8339C909-F14C-2C4C-BA89-011C8338A229}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,14 +919,16 @@
     <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="8" width="31.33203125" customWidth="1"/>
     <col min="9" max="9" width="31.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -911,8 +953,14 @@
       <c r="I4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -937,8 +985,14 @@
       <c r="I5">
         <v>0.81565079365079296</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0.91931746031745998</v>
+      </c>
+      <c r="K5">
+        <v>0.85133333333333305</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -963,8 +1017,14 @@
       <c r="I6">
         <v>0.87431746031746005</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0.94926984126984104</v>
+      </c>
+      <c r="K6">
+        <v>0.84688888888888803</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -989,8 +1049,14 @@
       <c r="I7">
         <v>0.91007936507936504</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0.96961904761904705</v>
+      </c>
+      <c r="K7">
+        <v>0.84588888888888802</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1015,8 +1081,14 @@
       <c r="I8">
         <v>0.92312698412698402</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0.98088888888888803</v>
+      </c>
+      <c r="K8">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -1041,8 +1113,14 @@
       <c r="I9">
         <v>0.94266666666666599</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0.98630158730158701</v>
+      </c>
+      <c r="K9">
+        <v>0.846444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1067,8 +1145,14 @@
       <c r="I10">
         <v>0.95079365079364997</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0.99047619047618995</v>
+      </c>
+      <c r="K10">
+        <v>0.84044444444444399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -1093,8 +1177,14 @@
       <c r="I11">
         <v>0.949031746031746</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0.99166666666666603</v>
+      </c>
+      <c r="K11">
+        <v>0.83855555555555505</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
@@ -1119,8 +1209,14 @@
       <c r="I12">
         <v>0.96077777777777695</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0.99296825396825295</v>
+      </c>
+      <c r="K12">
+        <v>0.83711111111111103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
@@ -1145,8 +1241,14 @@
       <c r="I13">
         <v>0.96706349206349196</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>0.99631746031746005</v>
+      </c>
+      <c r="K13">
+        <v>0.84333333333333305</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
@@ -1170,6 +1272,12 @@
       </c>
       <c r="I14">
         <v>0.96949206349206296</v>
+      </c>
+      <c r="J14">
+        <v>0.99653968253968195</v>
+      </c>
+      <c r="K14">
+        <v>0.83911111111111103</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81FE0B0-99D3-464F-8FF5-7416433A4FBB}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,15 +1304,19 @@
     <col min="7" max="7" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1229,8 +1341,20 @@
       <c r="I4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1255,8 +1379,20 @@
       <c r="I5">
         <v>0.89107936507936503</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0.87326984126984097</v>
+      </c>
+      <c r="K5">
+        <v>0.83355555555555505</v>
+      </c>
+      <c r="L5">
+        <v>0.91695238095238096</v>
+      </c>
+      <c r="M5">
+        <v>0.84866666666666601</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1281,8 +1417,20 @@
       <c r="I6">
         <v>0.91857142857142804</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0.927539682539682</v>
+      </c>
+      <c r="K6">
+        <v>0.83911111111111103</v>
+      </c>
+      <c r="L6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.845444444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1307,8 +1455,20 @@
       <c r="I7">
         <v>0.93326984126984103</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0.96244444444444399</v>
+      </c>
+      <c r="K7">
+        <v>0.83533333333333304</v>
+      </c>
+      <c r="L7">
+        <v>0.97047619047619005</v>
+      </c>
+      <c r="M7">
+        <v>0.84566666666666601</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1333,8 +1493,20 @@
       <c r="I8">
         <v>0.94420634920634905</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0.97847619047619006</v>
+      </c>
+      <c r="K8">
+        <v>0.83422222222222198</v>
+      </c>
+      <c r="L8">
+        <v>0.98120634920634897</v>
+      </c>
+      <c r="M8">
+        <v>0.846444444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -1359,8 +1531,20 @@
       <c r="I9">
         <v>0.94993650793650797</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0.986507936507936</v>
+      </c>
+      <c r="K9">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.98682539682539605</v>
+      </c>
+      <c r="M9">
+        <v>0.84233333333333305</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1385,8 +1569,20 @@
       <c r="I10">
         <v>0.95242857142857096</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0.98969841269841197</v>
+      </c>
+      <c r="K10">
+        <v>0.82522222222222197</v>
+      </c>
+      <c r="L10">
+        <v>0.990079365079365</v>
+      </c>
+      <c r="M10">
+        <v>0.842444444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -1411,8 +1607,20 @@
       <c r="I11">
         <v>0.95587301587301499</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0.99433333333333296</v>
+      </c>
+      <c r="K11">
+        <v>0.82788888888888801</v>
+      </c>
+      <c r="L11">
+        <v>0.99406349206349198</v>
+      </c>
+      <c r="M11">
+        <v>0.84266666666666601</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
@@ -1437,8 +1645,20 @@
       <c r="I12">
         <v>0.95630158730158699</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0.99676190476190396</v>
+      </c>
+      <c r="K12">
+        <v>0.82377777777777705</v>
+      </c>
+      <c r="L12">
+        <v>0.99553968253968195</v>
+      </c>
+      <c r="M12">
+        <v>0.84033333333333304</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
@@ -1463,8 +1683,20 @@
       <c r="I13">
         <v>0.95950793650793598</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>0.99798412698412697</v>
+      </c>
+      <c r="K13">
+        <v>0.82355555555555504</v>
+      </c>
+      <c r="L13">
+        <v>0.99461904761904696</v>
+      </c>
+      <c r="M13">
+        <v>0.837666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
@@ -1488,6 +1720,18 @@
       </c>
       <c r="I14">
         <v>0.96379365079364998</v>
+      </c>
+      <c r="J14">
+        <v>0.99860317460317405</v>
+      </c>
+      <c r="K14">
+        <v>0.82033333333333303</v>
+      </c>
+      <c r="L14">
+        <v>0.99669841269841197</v>
+      </c>
+      <c r="M14">
+        <v>0.83633333333333304</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/hyperparameters_comparison.xlsx
+++ b/analysis/hyperparameters_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandraastakhova/Projects/Python/Quick Draw/quick-draw-image-recognition/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2B8DFB-B214-AE46-B5CD-60E446049B0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9FAC2-3DD9-7744-BB2C-3DCC08E19F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1600" windowWidth="28240" windowHeight="17560" activeTab="2" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
+    <workbookView xWindow="3120" yWindow="1760" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Original dataset" sheetId="1" r:id="rId1"/>
@@ -147,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -185,15 +188,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD541"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,6 +213,2631 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en"/>
+              <a:t>Basic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en" baseline="0"/>
+              <a:t> Neural Network</a:t>
+            </a:r>
+            <a:endParaRPr lang="en"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFD541"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFD541"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFD541"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Original dataset'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original dataset'!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82022222222222196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79755555555555502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79911111111111099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80844444444444397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81344444444444397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81633333333333302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80822222222222195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.818888888888888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81155555555555503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81322222222222196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-14A7-5347-8AFE-C170119BCCC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Train</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Original dataset'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Original dataset'!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.87847619047618997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92838095238095197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.956238095238095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97614285714285698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99909523809523804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99990476190476096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99990476190476096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99990476190476096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99990476190476096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99990476190476096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-14A7-5347-8AFE-C170119BCCC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="364315951"/>
+        <c:axId val="364243023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="364315951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364243023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364243023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Accuracy,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364315951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Basic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Neural Network with Expanded Dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFD541"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFD541"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFD541"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Expanded dataset'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Expanded dataset'!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84733333333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84355555555555495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84211111111111103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82511111111111102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82822222222222197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82877777777777695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.822888888888888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83277777777777695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.832666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2802-5D46-8601-77B6E43D6317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Train</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Expanded dataset'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Expanded dataset'!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93088888888888799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97466666666666602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98295238095238002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98668253968253905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99574603174603105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96053968253968203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99995238095238004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99996825396825395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2802-5D46-8601-77B6E43D6317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="229565263"/>
+        <c:axId val="360720543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="229565263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360720543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360720543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229565263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E0B36E-6A35-9342-BAAE-416CBA06F653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEC3A02-AA92-C641-AEBD-9EEEF9C1B00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,7 +3156,7 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,10 +3218,10 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.82022222222222196</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.87847619047618997</v>
       </c>
       <c r="F5">
@@ -615,10 +3250,10 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.79755555555555502</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.92838095238095197</v>
       </c>
       <c r="F6">
@@ -647,10 +3282,10 @@
       <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.79911111111111099</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.956238095238095</v>
       </c>
       <c r="F7">
@@ -679,10 +3314,10 @@
       <c r="C8">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.80844444444444397</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.97614285714285698</v>
       </c>
       <c r="F8">
@@ -711,10 +3346,10 @@
       <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.81344444444444397</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.99909523809523804</v>
       </c>
       <c r="F9">
@@ -743,10 +3378,10 @@
       <c r="C10">
         <v>60</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.81633333333333302</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.99990476190476096</v>
       </c>
       <c r="F10">
@@ -775,10 +3410,10 @@
       <c r="C11">
         <v>70</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.80822222222222195</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.99990476190476096</v>
       </c>
       <c r="F11">
@@ -807,10 +3442,10 @@
       <c r="C12">
         <v>80</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.818888888888888</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.99990476190476096</v>
       </c>
       <c r="F12">
@@ -839,10 +3474,10 @@
       <c r="C13">
         <v>90</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.81155555555555503</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.99990476190476096</v>
       </c>
       <c r="F13">
@@ -871,10 +3506,10 @@
       <c r="C14">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.81322222222222196</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.99990476190476096</v>
       </c>
       <c r="F14">
@@ -898,6 +3533,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -905,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8339C909-F14C-2C4C-BA89-011C8338A229}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,10 +3603,10 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.86199999999999999</v>
       </c>
       <c r="F5">
@@ -999,10 +3635,10 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.84733333333333305</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.93088888888888799</v>
       </c>
       <c r="F6">
@@ -1031,10 +3667,10 @@
       <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.84355555555555495</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.95499999999999996</v>
       </c>
       <c r="F7">
@@ -1063,10 +3699,10 @@
       <c r="C8">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.84211111111111103</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.97466666666666602</v>
       </c>
       <c r="F8">
@@ -1095,10 +3731,10 @@
       <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.82511111111111102</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.98295238095238002</v>
       </c>
       <c r="F9">
@@ -1127,10 +3763,10 @@
       <c r="C10">
         <v>60</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.82822222222222197</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.98668253968253905</v>
       </c>
       <c r="F10">
@@ -1159,10 +3795,10 @@
       <c r="C11">
         <v>70</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.82877777777777695</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.99574603174603105</v>
       </c>
       <c r="F11">
@@ -1191,10 +3827,10 @@
       <c r="C12">
         <v>80</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.822888888888888</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.96053968253968203</v>
       </c>
       <c r="F12">
@@ -1223,10 +3859,10 @@
       <c r="C13">
         <v>90</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.83277777777777695</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.99995238095238004</v>
       </c>
       <c r="F13">
@@ -1255,10 +3891,10 @@
       <c r="C14">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.832666666666666</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.99996825396825395</v>
       </c>
       <c r="F14">
@@ -1282,6 +3918,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1289,8 +3926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81FE0B0-99D3-464F-8FF5-7416433A4FBB}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/hyperparameters_comparison.xlsx
+++ b/analysis/hyperparameters_comparison.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandraastakhova/Projects/Python/Quick Draw/quick-draw-image-recognition/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9FAC2-3DD9-7744-BB2C-3DCC08E19F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1639F85C-148A-2543-9093-761C69CA20EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1760" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="28240" windowHeight="17560" activeTab="3" xr2:uid="{7776EE55-F732-E243-947B-1C2E89181C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Original dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Expanded dataset" sheetId="2" r:id="rId2"/>
     <sheet name="Adam optimizer" sheetId="3" r:id="rId3"/>
+    <sheet name="More Epochs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="comparison_1557179772.093524" localSheetId="2">'Adam optimizer'!$B$4:$I$14</definedName>
     <definedName name="hyperparameter_comparison" localSheetId="0">'Original dataset'!$B$4:$K$14</definedName>
+    <definedName name="learning_curve_1558725347.69086" localSheetId="3">'More Epochs'!$B$4:$D$24</definedName>
+    <definedName name="learning_curve_1558794019.59101" localSheetId="3">'More Epochs'!$E$4:$F$24</definedName>
     <definedName name="learning_curve_adam_batch_norm" localSheetId="2">'Adam optimizer'!$J$4:$K$14</definedName>
     <definedName name="learning_curve_adam_batch_norm_7000" localSheetId="2">'Adam optimizer'!$L$4:$M$14</definedName>
   </definedNames>
@@ -68,7 +71,25 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{271E221C-F4AB-E244-B1AF-B9CEDBEFB65D}" name="learning_curve_adam_batch_norm" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{9B5ABC7A-05D4-0E41-B4FB-0CF970C53DF6}" name="learning_curve_1558725347.69086" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/learning_curve_1558725347.69086.csv" thousands=" " tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{CE3E91E1-4939-B54E-B925-C6294B37B298}" name="learning_curve_1558794019.59101" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/learning_curve_1558794019.59101.csv" thousands=" " tab="0" comma="1">
+      <textFields count="3">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{271E221C-F4AB-E244-B1AF-B9CEDBEFB65D}" name="learning_curve_adam_batch_norm" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/learning_curve_adam_batch_norm.csv" thousands=" " tab="0" comma="1">
       <textFields count="3">
         <textField/>
@@ -77,7 +98,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{AD48D861-32E6-F54D-AEB1-B3E184D14A53}" name="learning_curve_adam_batch_norm_7000" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{AD48D861-32E6-F54D-AEB1-B3E184D14A53}" name="learning_curve_adam_batch_norm_7000" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10007" sourceFile="/Users/aleksandraastakhova/Projects/Python/Quick Draw/learning_curve_adam_batch_norm_7000.csv" thousands=" " tab="0" comma="1">
       <textFields count="3">
         <textField type="skip"/>
@@ -90,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>test weight_decay: 0.0, dropout: 0.0</t>
   </si>
@@ -142,15 +163,27 @@
   <si>
     <t>test batch norm weight_decay: 0.0, dropout: 0.0, mini batches = 7000</t>
   </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Dropout = 0.3, weght decay = 0, learning rate = 0.03, minibatches = 7000, optimizer = Adam</t>
+  </si>
+  <si>
+    <t>Dropout = 0.5, weght decay = 0, learning rate = 0.03, minibatches = 7000, optimizer = Adam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +198,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,17 +226,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1672,6 +1716,1130 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en"/>
+              <a:t> Basic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en" baseline="0"/>
+              <a:t> Neural Network with Regularization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Epochs'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dropout = 0.3, weght decay = 0, learning rate = 0.03, minibatches = 7000, optimizer = Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'More Epochs'!$B$5:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Epochs'!$C$5:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.88958730158730104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92455555555555502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94042857142857095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95185714285714196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96263492063491995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96688888888888802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97153968253968204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97563492063491997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.976301587301587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97903174603174603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98001587301587301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98401587301587301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98617460317460304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98638095238095203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98588888888888804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98815873015873001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98941269841269797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98985714285714199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99114285714285699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99068253968253905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7C5-EA40-AEFA-34E9E7AEA300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Epochs'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dropout = 0.3, weght decay = 0, learning rate = 0.03, minibatches = 7000, optimizer = Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'More Epochs'!$B$5:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Epochs'!$D$5:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85122222222222199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84077777777777696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83311111111111102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82844444444444398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83455555555555505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82755555555555504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83133333333333304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82944444444444398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82344444444444398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83133333333333304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82566666666666599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82855555555555505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82844444444444398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82855555555555505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82911111111111102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82244444444444398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82488888888888801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7C5-EA40-AEFA-34E9E7AEA300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Epochs'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dropout = 0.5, weght decay = 0, learning rate = 0.03, minibatches = 7000, optimizer = Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'More Epochs'!$B$5:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Epochs'!$E$5:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.87226984126984097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90882539682539598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92377777777777703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93755555555555503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94431746031746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95057142857142796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95376190476190403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96261904761904704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96446031746031702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96739682539682503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97034920634920596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97366666666666601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97758730158730101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97887301587301501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98082539682539605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98158730158730101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98292063492063497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98342857142857099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98387301587301501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7C5-EA40-AEFA-34E9E7AEA300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Epochs'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dropout = 0.5, weght decay = 0, learning rate = 0.03, minibatches = 7000, optimizer = Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFD541"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFD541"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'More Epochs'!$B$5:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Epochs'!$F$5:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.82855555555555505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83677777777777695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83877777777777696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.836666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82788888888888801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82977777777777695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.827666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.830666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82311111111111102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82811111111111102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82422222222222197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82488888888888801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82155555555555504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.830666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82122222222222196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.820888888888888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82077777777777705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82422222222222197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82044444444444398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82011111111111101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B7C5-EA40-AEFA-34E9E7AEA300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="155417327"/>
+        <c:axId val="121285599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="155417327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121285599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121285599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155417327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1752,6 +2920,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2256,6 +3464,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2840,20 +4551,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7046DA10-EBD5-2E4D-9C9C-41DFBB0BB2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="hyperparameter_comparison" connectionId="2" xr16:uid="{BA1644FB-2D55-3E41-9BFC-E3B5AE7525F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_adam_batch_norm_7000" connectionId="4" xr16:uid="{17E34221-FBAE-184A-930B-412F0C2EF5F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_adam_batch_norm" connectionId="5" xr16:uid="{B3314429-B1B6-BE45-AB91-D2B05C6A27EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_adam_batch_norm_7000" connectionId="6" xr16:uid="{17E34221-FBAE-184A-930B-412F0C2EF5F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="comparison_1557179772.093524" connectionId="1" xr16:uid="{3BE52358-A770-7945-B8C3-771A99E8AA11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_adam_batch_norm" connectionId="3" xr16:uid="{B3314429-B1B6-BE45-AB91-D2B05C6A27EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_1558794019.59101" connectionId="4" xr16:uid="{1518C538-4CD9-474E-B612-8350208C91C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="learning_curve_1558725347.69086" connectionId="3" xr16:uid="{039CF50D-F58A-8945-9EE4-10E54CF11200}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3541,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8339C909-F14C-2C4C-BA89-011C8338A229}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3927,7 +5687,7 @@
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4374,4 +6134,390 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEAB7C3-3F93-4A41-9CA7-ADB06CBA0BE4}">
+  <dimension ref="B3:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.88958730158730104</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.87226984126984097</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.82855555555555505</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.92455555555555502</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.85122222222222199</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.90882539682539598</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.83677777777777695</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.94042857142857095</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.84077777777777696</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.92377777777777703</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.83877777777777696</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.95185714285714196</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.83311111111111102</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.93755555555555503</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.836666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.96263492063491995</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.82844444444444398</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.94431746031746</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.82788888888888801</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.96688888888888802</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.83455555555555505</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.95057142857142796</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.82977777777777695</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.97153968253968204</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.82755555555555504</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.95376190476190403</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.827666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.97563492063491997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.96261904761904704</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.830666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.976301587301587</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.83133333333333304</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.96446031746031702</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.82311111111111102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.97903174603174603</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.82944444444444398</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.96739682539682503</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.82811111111111102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.98001587301587301</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.82344444444444398</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.97034920634920596</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.82422222222222197</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.98401587301587301</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.83133333333333304</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.97366666666666601</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.82488888888888801</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>130</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.98617460317460304</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.82566666666666599</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.97514285714285698</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.82155555555555504</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.98638095238095203</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.82855555555555505</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.97758730158730101</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.830666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.98588888888888804</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.82844444444444398</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.97887301587301501</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.82122222222222196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>160</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.98815873015873001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.82855555555555505</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.98082539682539605</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.820888888888888</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>170</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.98941269841269797</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.82911111111111102</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.98158730158730101</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.82077777777777705</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.98985714285714199</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.98292063492063497</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.82422222222222197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>190</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.99114285714285699</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.82244444444444398</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.98342857142857099</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.82044444444444398</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.99068253968253905</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.82488888888888801</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.98387301587301501</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.82011111111111101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>